--- a/biology/Mycologie/Chrysomyxa_arctostaphyli/Chrysomyxa_arctostaphyli.xlsx
+++ b/biology/Mycologie/Chrysomyxa_arctostaphyli/Chrysomyxa_arctostaphyli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysomyxa arctostaphyli est une espèce de champignons basidiomycètes de la famille des Pucciniomycetes, originaire d'Amérique du Nord. Cette espèce est un parasite diécique, agent de la rouille-balai de sorcière de l'épinette qui affecte diverses espèces d'Épicéas et dont l'hôte secondaire est la Busserole (Arctostaphylos uva-ursi)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysomyxa arctostaphyli est une espèce de champignons basidiomycètes de la famille des Pucciniomycetes, originaire d'Amérique du Nord. Cette espèce est un parasite diécique, agent de la rouille-balai de sorcière de l'épinette qui affecte diverses espèces d'Épicéas et dont l'hôte secondaire est la Busserole (Arctostaphylos uva-ursi).
 </t>
         </is>
       </c>
@@ -511,19 +523,21 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chrysomyxa alpina Hirats. f.[2]
-Chrysomyxa arctostaphyli Dietel[2]
-Chrysomyxa cassandrae (Gobi) Tranzschel[2]
-Chrysomyxa chiogenis Dietel[2]
-Chrysomyxa ledi (Alb. &amp; Schwein.) de Bary (préféré par BioLib)[2]
-Melampsoropsis arctostaphyli Arthur[2]
-Peridermium abietinum Thüm.[2]
-Peridermium boreale Arthur &amp; F. Kern[2]
-Peridermium coloradense (Dietel) Arthur &amp; F. Kern[2]
-Peridermium consimile Arthur &amp; F. Kern[2]
-Uredo ledi Alb. &amp; Schwein.[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chrysomyxa alpina Hirats. f.
+Chrysomyxa arctostaphyli Dietel
+Chrysomyxa cassandrae (Gobi) Tranzschel
+Chrysomyxa chiogenis Dietel
+Chrysomyxa ledi (Alb. &amp; Schwein.) de Bary (préféré par BioLib)
+Melampsoropsis arctostaphyli Arthur
+Peridermium abietinum Thüm.
+Peridermium boreale Arthur &amp; F. Kern
+Peridermium coloradense (Dietel) Arthur &amp; F. Kern
+Peridermium consimile Arthur &amp; F. Kern
+Uredo ledi Alb. &amp; Schwein.</t>
         </is>
       </c>
     </row>
